--- a/src/test/data/cell_format_2007.xlsx
+++ b/src/test/data/cell_format_2007.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="135" windowWidth="19155" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="330" yWindow="135" windowWidth="19155" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="書式（指数）" sheetId="13" r:id="rId11"/>
     <sheet name="書式（その他)" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="328">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -1064,7 +1064,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="75">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
@@ -1082,67 +1082,67 @@
     <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="183" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="184" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="186" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="187" formatCode="#,##0.0;[Red]#,##0.0"/>
-    <numFmt numFmtId="188" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="189" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="190" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
-    <numFmt numFmtId="191" formatCode="0;&quot;△ &quot;0"/>
-    <numFmt numFmtId="192" formatCode="#,##0.0;&quot;△ &quot;#,##0.0"/>
-    <numFmt numFmtId="193" formatCode="0;&quot;▲ &quot;0"/>
-    <numFmt numFmtId="194" formatCode="#,##0.0;&quot;▲ &quot;#,##0.0"/>
-    <numFmt numFmtId="195" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="196" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="197" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="198" formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="199" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
-    <numFmt numFmtId="200" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
-    <numFmt numFmtId="201" formatCode="\$#,##0.00;[Red]\-\$#,##0.00"/>
-    <numFmt numFmtId="202" formatCode="\$#,##0;[Red]\-\$#,##0"/>
-    <numFmt numFmtId="203" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="205" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="206" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="207" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="208" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="209" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="210" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="211" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="212" formatCode="m/d;@"/>
-    <numFmt numFmtId="213" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="214" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="215" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="216" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="217" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="218" formatCode="[$-409]mmmm\-yy;@"/>
-    <numFmt numFmtId="219" formatCode="[$-409]mmmmm;@"/>
-    <numFmt numFmtId="220" formatCode="[$-409]mmmmm\-yy;@"/>
-    <numFmt numFmtId="221" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="222" formatCode="[$-411]ge\.m\.d;@"/>
-    <numFmt numFmtId="223" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="224" formatCode="h:mm;@"/>
-    <numFmt numFmtId="225" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="226" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="227" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="228" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
-    <numFmt numFmtId="229" formatCode="h&quot;時&quot;mm&quot;分&quot;ss&quot;秒&quot;;@"/>
-    <numFmt numFmtId="230" formatCode="#\ ???/???"/>
-    <numFmt numFmtId="231" formatCode="#\ ?/2"/>
-    <numFmt numFmtId="232" formatCode="#\ ?/4"/>
-    <numFmt numFmtId="233" formatCode="#\ ?/8"/>
-    <numFmt numFmtId="234" formatCode="#\ ?/16"/>
-    <numFmt numFmtId="235" formatCode="#\ ?/10"/>
-    <numFmt numFmtId="236" formatCode="#\ ?/100"/>
-    <numFmt numFmtId="237" formatCode="0.E+00"/>
-    <numFmt numFmtId="238" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="239" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
-    <numFmt numFmtId="240" formatCode="[&lt;=99999999]####\-####;\(00\)\ ####\-####"/>
-    <numFmt numFmtId="241" formatCode="&quot;△&quot;\ #,##0;&quot;▲&quot;\ #,##0"/>
-    <numFmt numFmtId="242" formatCode="[DBNum1][$-411]General"/>
-    <numFmt numFmtId="243" formatCode="[DBNum2][$-411]General"/>
-    <numFmt numFmtId="244" formatCode="[DBNum3][$-411]0"/>
-    <numFmt numFmtId="245" formatCode="[DBNum3][$-411]#,##0"/>
+    <numFmt numFmtId="185" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="186" formatCode="#,##0.0;[Red]#,##0.0"/>
+    <numFmt numFmtId="187" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="188" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="189" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
+    <numFmt numFmtId="190" formatCode="0;&quot;△ &quot;0"/>
+    <numFmt numFmtId="191" formatCode="#,##0.0;&quot;△ &quot;#,##0.0"/>
+    <numFmt numFmtId="192" formatCode="0;&quot;▲ &quot;0"/>
+    <numFmt numFmtId="193" formatCode="#,##0.0;&quot;▲ &quot;#,##0.0"/>
+    <numFmt numFmtId="194" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="195" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="196" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="197" formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="198" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="199" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="200" formatCode="\$#,##0.00;[Red]\-\$#,##0.00"/>
+    <numFmt numFmtId="201" formatCode="\$#,##0;[Red]\-\$#,##0"/>
+    <numFmt numFmtId="202" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="203" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="204" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="205" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="206" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="207" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="208" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="209" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="210" formatCode="m/d;@"/>
+    <numFmt numFmtId="211" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="212" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="213" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="214" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="215" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="216" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="217" formatCode="[$-409]mmmmm;@"/>
+    <numFmt numFmtId="218" formatCode="[$-409]mmmmm\-yy;@"/>
+    <numFmt numFmtId="219" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="220" formatCode="[$-411]ge\.m\.d;@"/>
+    <numFmt numFmtId="221" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="222" formatCode="h:mm;@"/>
+    <numFmt numFmtId="223" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="224" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="225" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="226" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
+    <numFmt numFmtId="227" formatCode="h&quot;時&quot;mm&quot;分&quot;ss&quot;秒&quot;;@"/>
+    <numFmt numFmtId="228" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="229" formatCode="#\ ?/2"/>
+    <numFmt numFmtId="230" formatCode="#\ ?/4"/>
+    <numFmt numFmtId="231" formatCode="#\ ?/8"/>
+    <numFmt numFmtId="232" formatCode="#\ ?/16"/>
+    <numFmt numFmtId="233" formatCode="#\ ?/10"/>
+    <numFmt numFmtId="234" formatCode="#\ ?/100"/>
+    <numFmt numFmtId="235" formatCode="0.E+00"/>
+    <numFmt numFmtId="236" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="237" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
+    <numFmt numFmtId="238" formatCode="[&lt;=99999999]####\-####;\(00\)\ ####\-####"/>
+    <numFmt numFmtId="239" formatCode="&quot;△&quot;\ #,##0;&quot;▲&quot;\ #,##0"/>
+    <numFmt numFmtId="240" formatCode="[DBNum1][$-411]General"/>
+    <numFmt numFmtId="241" formatCode="[DBNum2][$-411]General"/>
+    <numFmt numFmtId="242" formatCode="[DBNum3][$-411]0"/>
+    <numFmt numFmtId="243" formatCode="[DBNum3][$-411]#,##0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1293,6 +1293,9 @@
     <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1320,61 +1323,64 @@
     <xf numFmtId="194" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="201" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="202" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="202" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="203" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="204" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="205" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1446,24 +1452,24 @@
     <xf numFmtId="227" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="228" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="229" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="230" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1482,15 +1488,15 @@
     <xf numFmtId="235" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="236" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="237" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="238" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1507,12 +1513,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="243" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="244" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="245" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1521,6 +1521,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2280,7 +2285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2354,6 +2359,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2388,6 +2394,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2563,14 +2570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="4" customWidth="1"/>
@@ -2580,12 +2587,12 @@
     <col min="6" max="6" width="18.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2605,17 +2612,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="46">
+        <v>-1234.5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -2625,7 +2642,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -2635,7 +2652,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -2645,7 +2662,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -2655,7 +2672,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -2665,7 +2682,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -2675,7 +2692,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -2685,7 +2702,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -2695,7 +2712,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -2705,7 +2722,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -2715,7 +2732,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -2725,7 +2742,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -2735,7 +2752,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -2753,14 +2770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="4" customWidth="1"/>
@@ -2771,12 +2788,12 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2796,7 +2813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2816,7 +2833,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -2836,7 +2853,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -2856,7 +2873,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -2876,7 +2893,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -2896,7 +2913,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -2916,7 +2933,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -2936,7 +2953,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -2956,7 +2973,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -2976,7 +2993,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -2995,14 +3012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="4" customWidth="1"/>
@@ -3013,12 +3030,12 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3038,7 +3055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -3058,7 +3075,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -3078,7 +3095,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -3098,7 +3115,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -3108,7 +3125,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -3127,14 +3144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="4" customWidth="1"/>
@@ -3145,12 +3162,12 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3170,7 +3187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -3190,7 +3207,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -3210,7 +3227,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -3230,7 +3247,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -3250,7 +3267,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -3270,7 +3287,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -3290,7 +3307,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -3310,7 +3327,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -3330,7 +3347,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -3350,7 +3367,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -3370,7 +3387,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -3390,7 +3407,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -3410,7 +3427,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -3430,7 +3447,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -3450,7 +3467,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -3470,7 +3487,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -3490,7 +3507,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -3510,7 +3527,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -3530,7 +3547,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -3540,7 +3557,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -3559,14 +3576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="4" customWidth="1"/>
@@ -3576,12 +3593,12 @@
     <col min="6" max="6" width="18.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3601,7 +3618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -3617,7 +3634,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -3637,7 +3654,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -3657,7 +3674,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27">
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -3677,7 +3694,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27">
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -3697,7 +3714,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -3717,7 +3734,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -3737,7 +3754,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -3757,7 +3774,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -3777,7 +3794,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -3797,7 +3814,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -3807,7 +3824,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -3817,7 +3834,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -3827,7 +3844,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -3846,14 +3863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="4" customWidth="1"/>
@@ -3864,12 +3881,12 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3889,7 +3906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -3910,7 +3927,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -3937,7 +3954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -3964,7 +3981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -3977,7 +3994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -3990,7 +4007,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -4000,7 +4017,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -4010,7 +4027,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -4020,7 +4037,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -4030,7 +4047,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -4040,7 +4057,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -4050,7 +4067,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -4060,7 +4077,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -4070,7 +4087,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -4088,14 +4105,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="4" customWidth="1"/>
@@ -4106,12 +4123,12 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4131,7 +4148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -4151,7 +4168,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -4171,7 +4188,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -4191,7 +4208,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -4211,7 +4228,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -4231,7 +4248,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -4251,7 +4268,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -4271,7 +4288,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -4291,7 +4308,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -4311,7 +4328,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -4331,7 +4348,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -4351,7 +4368,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -4371,7 +4388,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -4391,7 +4408,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -4411,7 +4428,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -4431,7 +4448,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -4451,7 +4468,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -4471,7 +4488,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -4491,7 +4508,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -4511,7 +4528,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -4531,7 +4548,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -4551,7 +4568,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -4571,7 +4588,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -4591,7 +4608,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -4611,7 +4628,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -4631,7 +4648,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -4651,7 +4668,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -4671,7 +4688,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -4681,7 +4698,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -4691,7 +4708,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -4710,14 +4727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="4" customWidth="1"/>
@@ -4728,12 +4745,12 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4753,7 +4770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -4773,7 +4790,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -4793,7 +4810,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -4813,7 +4830,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -4833,7 +4850,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -4853,7 +4870,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -4873,7 +4890,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -4893,7 +4910,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -4913,7 +4930,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -4933,7 +4950,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -4953,7 +4970,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -4973,7 +4990,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -4993,7 +5010,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -5013,7 +5030,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -5033,7 +5050,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -5053,7 +5070,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -5073,7 +5090,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -5093,7 +5110,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -5113,7 +5130,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -5123,7 +5140,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -5142,14 +5159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="4" customWidth="1"/>
@@ -5160,12 +5177,12 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -5185,7 +5202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -5205,7 +5222,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -5225,7 +5242,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -5245,7 +5262,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -5265,7 +5282,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -5285,7 +5302,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -5305,7 +5322,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -5325,7 +5342,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -5345,7 +5362,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -5365,7 +5382,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -5384,14 +5401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="4" customWidth="1"/>
@@ -5402,12 +5419,12 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -5427,7 +5444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -5447,7 +5464,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -5467,7 +5484,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -5487,7 +5504,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -5507,7 +5524,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -5527,7 +5544,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -5547,7 +5564,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -5567,7 +5584,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -5587,7 +5604,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -5607,7 +5624,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -5627,7 +5644,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -5647,7 +5664,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -5667,7 +5684,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -5687,7 +5704,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -5707,7 +5724,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -5727,7 +5744,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -5747,7 +5764,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -5767,7 +5784,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -5787,7 +5804,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -5807,7 +5824,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -5827,7 +5844,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -5847,7 +5864,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -5867,7 +5884,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -5887,7 +5904,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -5907,7 +5924,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -5927,7 +5944,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -5947,7 +5964,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -5967,7 +5984,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -5987,7 +6004,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -6007,7 +6024,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -6027,7 +6044,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -6047,7 +6064,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -6067,7 +6084,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -6086,14 +6103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="4" customWidth="1"/>
@@ -6104,12 +6121,12 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6129,7 +6146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -6149,7 +6166,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -6169,7 +6186,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -6189,7 +6206,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -6209,7 +6226,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -6229,7 +6246,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -6249,7 +6266,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -6269,7 +6286,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -6289,7 +6306,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -6309,7 +6326,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -6328,14 +6345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="4" customWidth="1"/>
@@ -6346,12 +6363,12 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6371,7 +6388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -6391,7 +6408,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -6411,7 +6428,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -6421,7 +6438,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -6431,7 +6448,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
